--- a/agents/BTV/BTV-Data-Contents.xlsx
+++ b/agents/BTV/BTV-Data-Contents.xlsx
@@ -51,16 +51,16 @@
     <t xml:space="preserve">sub-title</t>
   </si>
   <si>
-    <t xml:space="preserve">Based on official disease reports to the OIE</t>
+    <t xml:space="preserve">Based on official disease reports to the WOAH</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">BTV is a disease listed in the World Organisation for Animal Health ({ref009:OIE}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:OIE-WAHIS} system since 2005.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As described in the OIE {ref005:Terrestrial Animal Health Code}, the OIE early warning system includes immediate notifications and follow-up reports on:</t>
+    <t xml:space="preserve">BTV is a disease listed in the World Organisation for Animal Health ({ref009:WOAH}) Terrestrial Animal Health Code. The map to the right displays occurrence reported to the {ref001:WOAH-WAHIS} system since 2005.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As described in the WOAH {ref005:Terrestrial Animal Health Code}, the WOAH early warning system includes immediate notifications and follow-up reports on:</t>
   </si>
   <si>
     <t xml:space="preserve">list</t>
@@ -84,7 +84,7 @@
     <t xml:space="preserve">Occurrence of a listed disease in an unusual host species.</t>
   </si>
   <si>
-    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the OIE monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
+    <t xml:space="preserve">Information on stable situations (disease present or absent in a zone or country) is provided by countries through the WOAH monitoring system, which is a different reporting channel. This information is available in a different spatial and temporal scale, which can be browsed on the map independently from the outbreak notification points.</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -96,7 +96,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:OIE-WAHIS}.</t>
+    <t xml:space="preserve">For more up to date reports, visit the original data source: {ref001:WOAH-WAHIS}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -135,7 +135,7 @@
     <t xml:space="preserve">Animal Health Impact</t>
   </si>
   <si>
-    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:OIE Technical disease card}.</t>
+    <t xml:space="preserve">A summary of the disease in animal hosts is given in the {ref008:WOAH Technical disease card}.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing the health effects of this pathogen in host animal species. Scroll down through the content.</t>
@@ -204,7 +204,7 @@
     <t xml:space="preserve">Virus characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the virus characteristics. </t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the virus characteristics. </t>
   </si>
   <si>
     <t xml:space="preserve">Virus survival outside living hosts</t>
@@ -237,7 +237,7 @@
     <t xml:space="preserve">Transmission</t>
   </si>
   <si>
-    <t xml:space="preserve">Refer to the {ref008:OIE Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
+    <t xml:space="preserve">Refer to the {ref008:WOAH Technical disease card} for a key summary of the disease transmission and epidemiological parameters.</t>
   </si>
   <si>
     <t xml:space="preserve">The panel to the right summarizes all evidence collected by EFSA from published experimental infection studies describing host infectiousness. Scroll down through the content.</t>
@@ -261,7 +261,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-prescribed tests for international trade include ({ref010:OIE, Terrestrial Manual}):</t>
+    <t xml:space="preserve">WOAH-prescribed tests for international trade include ({ref010:WOAH, Terrestrial Manual}):</t>
   </si>
   <si>
     <t xml:space="preserve">For the detection of the agent (confirmation of clinical cases and individual animal freedom from infection prior to movement): Real-time RT-PCR, RT-PCR and classical virus isolation.</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">The CoVetLab consortium has been responsible for the systematic literature reviews since 2015, and has delivered story maps to EFSA since 2021. Partners are: Swedish National Veterinary Institute (SVA, Sweden); Wageningen Bioveterinary Research (WBVR, The Netherlands); Animal and Plant Health Agency (APHA; UK) and the University of Surrey (UK). </t>
   </si>
   <si>
-    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (OIE). {ref001:OIE-WAHIS} (OIE World Animal Health Information System) is the original source of these data.</t>
+    <t xml:space="preserve">Geographical distribution data has been kindly provided by the World Organisation of Animal Health (WOAH). {ref001:WOAH-WAHIS} (WOAH World Animal Health Information System) is the original source of these data.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA thanks the following experts for their specific contribution to this story map:</t>
@@ -525,7 +525,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -552,7 +552,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -579,7 +579,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: Bluetongue. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: Bluetongue. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/document/bluetongue/</t>
@@ -588,7 +588,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Bluetongue. Chapter 8.3. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Bluetongue. Chapter 8.3. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=1&amp;htmfile=chapitre_bluetongue.htm</t>
@@ -597,7 +597,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. Bluetongue. Chapter 3.1.3. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. Bluetongue. Chapter 3.1.3. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.01.03_BLUETONGUE.pdf</t>

--- a/agents/BTV/BTV-Data-Contents.xlsx
+++ b/agents/BTV/BTV-Data-Contents.xlsx
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Disease</t>
@@ -168,7 +168,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -180,7 +180,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-BTV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-BTV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -228,7 +228,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-BTV.html</t>
@@ -294,7 +294,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-BTV.html</t>

--- a/agents/BTV/BTV-Data-Contents.xlsx
+++ b/agents/BTV/BTV-Data-Contents.xlsx
@@ -231,7 +231,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-BTV.html</t>
+    <t xml:space="preserve">PathogenSurvival-BTV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/BTV/BTV-Data-Contents.xlsx
+++ b/agents/BTV/BTV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\BTV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\BTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AE7142-B8D8-4292-BA85-6EC1C2CD1DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D2C45F-A45C-4C9A-A8E3-D40219F7F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1171,13 +1171,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138:D138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>6</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>8</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>3</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>4</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>5</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>7</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>8</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>9</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>10</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>11</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>12</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>13</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>14</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>15</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>16</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>13</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>14</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>15</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>17</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>18</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>6</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>8</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>9</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>10</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>12</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>7</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>10</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>12</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>13</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>14</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2843,7 +2843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>6</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>8</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>9</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>10</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>11</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>12</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>13</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>9</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>10</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>4</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>7</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>9</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>10</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>11</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13</v>
       </c>
@@ -3514,16 +3514,16 @@
         <v>11</v>
       </c>
       <c r="C138">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E138" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>7</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>4</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>6</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>4</v>
       </c>
@@ -3829,7 +3829,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>5</v>
       </c>
@@ -3846,7 +3846,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>4</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>5</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3982,7 +3982,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>9</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>10</v>
       </c>
@@ -4028,9 +4028,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>172</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>181</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>184</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>187</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>190</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>193</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>199</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>205</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>208</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>211</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>223</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>229</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>232</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>238</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>244</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>247</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>250</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>253</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>256</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>259</v>
       </c>
